--- a/DA/cap08-BasesDeDatos/BD1_companies_150401.xlsx
+++ b/DA/cap08-BasesDeDatos/BD1_companies_150401.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>NPC - Next planned contact</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>TB Company VCP [Position, Value]</t>
+  </si>
+  <si>
+    <t>TENER EN CUENTA LA INTEGRACIÓN CON SAP al ser la clave principal.</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1063,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
         <v>82</v>
@@ -1112,7 +1115,9 @@
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
